--- a/Code/Results/Cases/Case_4_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020360899099289</v>
+        <v>1.049528901042879</v>
       </c>
       <c r="D2">
-        <v>1.036706009352285</v>
+        <v>1.054136975441201</v>
       </c>
       <c r="E2">
-        <v>1.02840536166978</v>
+        <v>1.053202837223017</v>
       </c>
       <c r="F2">
-        <v>1.041485491089953</v>
+        <v>1.063417280071903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052014412231141</v>
+        <v>1.046267377102742</v>
       </c>
       <c r="J2">
-        <v>1.041949217912733</v>
+        <v>1.054566867383135</v>
       </c>
       <c r="K2">
-        <v>1.047676602341816</v>
+        <v>1.056881015881968</v>
       </c>
       <c r="L2">
-        <v>1.03948265571374</v>
+        <v>1.055949455611956</v>
       </c>
       <c r="M2">
-        <v>1.05239560867615</v>
+        <v>1.066135975885871</v>
       </c>
       <c r="N2">
-        <v>1.017290054748711</v>
+        <v>1.021951551960112</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025420821091422</v>
+        <v>1.050589452302866</v>
       </c>
       <c r="D3">
-        <v>1.040527755121083</v>
+        <v>1.054959511645151</v>
       </c>
       <c r="E3">
-        <v>1.032979810687189</v>
+        <v>1.0542130477284</v>
       </c>
       <c r="F3">
-        <v>1.045859217963212</v>
+        <v>1.064380378148236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053706240390701</v>
+        <v>1.046568661151701</v>
       </c>
       <c r="J3">
-        <v>1.045241686852245</v>
+        <v>1.055276191699055</v>
       </c>
       <c r="K3">
-        <v>1.050667063029109</v>
+        <v>1.057516711613107</v>
       </c>
       <c r="L3">
-        <v>1.043207406644968</v>
+        <v>1.056772158639386</v>
       </c>
       <c r="M3">
-        <v>1.055937111925265</v>
+        <v>1.066913708975957</v>
       </c>
       <c r="N3">
-        <v>1.018432215646685</v>
+        <v>1.022193598356602</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028624460107799</v>
+        <v>1.051275972222913</v>
       </c>
       <c r="D4">
-        <v>1.042950784007437</v>
+        <v>1.055491982083952</v>
       </c>
       <c r="E4">
-        <v>1.035881291900975</v>
+        <v>1.054867324505244</v>
       </c>
       <c r="F4">
-        <v>1.048633975145539</v>
+        <v>1.065004122744296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054768930897522</v>
+        <v>1.046762591504613</v>
       </c>
       <c r="J4">
-        <v>1.04732324791629</v>
+        <v>1.055734851351829</v>
       </c>
       <c r="K4">
-        <v>1.052557058974357</v>
+        <v>1.05792763277806</v>
       </c>
       <c r="L4">
-        <v>1.045565121366053</v>
+        <v>1.057304493731963</v>
       </c>
       <c r="M4">
-        <v>1.058178833042183</v>
+        <v>1.067416885983768</v>
       </c>
       <c r="N4">
-        <v>1.019153721252246</v>
+        <v>1.022349966238272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029955053509961</v>
+        <v>1.051564650345293</v>
       </c>
       <c r="D5">
-        <v>1.043957902067749</v>
+        <v>1.055715888098839</v>
       </c>
       <c r="E5">
-        <v>1.037087599802768</v>
+        <v>1.055142526336449</v>
       </c>
       <c r="F5">
-        <v>1.049787721708126</v>
+        <v>1.065266477338492</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055208235923946</v>
+        <v>1.046843875253564</v>
       </c>
       <c r="J5">
-        <v>1.048187034245285</v>
+        <v>1.055927594751891</v>
       </c>
       <c r="K5">
-        <v>1.053341190065801</v>
+        <v>1.058100283887241</v>
       </c>
       <c r="L5">
-        <v>1.046544193463946</v>
+        <v>1.057528284890812</v>
       </c>
       <c r="M5">
-        <v>1.059109725411936</v>
+        <v>1.067628404706994</v>
       </c>
       <c r="N5">
-        <v>1.019452975122109</v>
+        <v>1.022415642653439</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030177533410494</v>
+        <v>1.051613124491273</v>
       </c>
       <c r="D6">
-        <v>1.044126337749984</v>
+        <v>1.055753486134812</v>
       </c>
       <c r="E6">
-        <v>1.037289368889864</v>
+        <v>1.055188742357484</v>
       </c>
       <c r="F6">
-        <v>1.049980706170368</v>
+        <v>1.065310535571592</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055281566451548</v>
+        <v>1.046857508803851</v>
       </c>
       <c r="J6">
-        <v>1.048331416296363</v>
+        <v>1.055959952684152</v>
       </c>
       <c r="K6">
-        <v>1.05347224794743</v>
+        <v>1.058129266882612</v>
       </c>
       <c r="L6">
-        <v>1.046707886272044</v>
+        <v>1.05756586025177</v>
       </c>
       <c r="M6">
-        <v>1.059265361935075</v>
+        <v>1.067663918625281</v>
       </c>
       <c r="N6">
-        <v>1.019502986433765</v>
+        <v>1.022426666449595</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028642302441645</v>
+        <v>1.051279829298172</v>
       </c>
       <c r="D7">
-        <v>1.042964285903883</v>
+        <v>1.055494973710104</v>
       </c>
       <c r="E7">
-        <v>1.035897462913216</v>
+        <v>1.054871001200862</v>
       </c>
       <c r="F7">
-        <v>1.048649441081222</v>
+        <v>1.06500762781996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054774829904359</v>
+        <v>1.046763678583341</v>
       </c>
       <c r="J7">
-        <v>1.047334833764075</v>
+        <v>1.055737427102042</v>
       </c>
       <c r="K7">
-        <v>1.052567577068544</v>
+        <v>1.057929940144695</v>
       </c>
       <c r="L7">
-        <v>1.045578250791727</v>
+        <v>1.057307484050768</v>
       </c>
       <c r="M7">
-        <v>1.058191316436345</v>
+        <v>1.067419712374338</v>
       </c>
       <c r="N7">
-        <v>1.019157735705456</v>
+        <v>1.022350844048322</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022085919743285</v>
+        <v>1.049887262885853</v>
       </c>
       <c r="D8">
-        <v>1.038008178774377</v>
+        <v>1.054414906423549</v>
       </c>
       <c r="E8">
-        <v>1.029963756834395</v>
+        <v>1.053544117435405</v>
       </c>
       <c r="F8">
-        <v>1.042975371399703</v>
+        <v>1.063742648097504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052592942498943</v>
+        <v>1.046369408626705</v>
       </c>
       <c r="J8">
-        <v>1.043072294242747</v>
+        <v>1.054806653022467</v>
       </c>
       <c r="K8">
-        <v>1.048696788188751</v>
+        <v>1.057095938199458</v>
       </c>
       <c r="L8">
-        <v>1.040752588110244</v>
+        <v>1.056227493521096</v>
       </c>
       <c r="M8">
-        <v>1.053603056573097</v>
+        <v>1.066398828244496</v>
       </c>
       <c r="N8">
-        <v>1.01767977009654</v>
+        <v>1.022033404776202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009961710450963</v>
+        <v>1.047435470645317</v>
       </c>
       <c r="D9">
-        <v>1.028872588789544</v>
+        <v>1.052513516683916</v>
       </c>
       <c r="E9">
-        <v>1.019034560940536</v>
+        <v>1.05121061868048</v>
       </c>
       <c r="F9">
-        <v>1.032529903327462</v>
+        <v>1.061517878291053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048492330376747</v>
+        <v>1.045666848930377</v>
       </c>
       <c r="J9">
-        <v>1.0351675335708</v>
+        <v>1.053164070505143</v>
       </c>
       <c r="K9">
-        <v>1.04151397431459</v>
+        <v>1.05562314981612</v>
       </c>
       <c r="L9">
-        <v>1.031826183944161</v>
+        <v>1.054324362976902</v>
       </c>
       <c r="M9">
-        <v>1.04511636642422</v>
+        <v>1.064599400383645</v>
       </c>
       <c r="N9">
-        <v>1.014934582763669</v>
+        <v>1.021472114063642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001447966307133</v>
+        <v>1.045802345923186</v>
       </c>
       <c r="D10">
-        <v>1.022481566889998</v>
+        <v>1.051247191574641</v>
       </c>
       <c r="E10">
-        <v>1.01139242221494</v>
+        <v>1.049658099311652</v>
       </c>
       <c r="F10">
-        <v>1.025230964957692</v>
+        <v>1.060037618419168</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045570836224302</v>
+        <v>1.045193241249137</v>
       </c>
       <c r="J10">
-        <v>1.029604252951111</v>
+        <v>1.052067394771845</v>
       </c>
       <c r="K10">
-        <v>1.036456436680124</v>
+        <v>1.054639183858807</v>
       </c>
       <c r="L10">
-        <v>1.025558985038743</v>
+        <v>1.053055598499608</v>
       </c>
       <c r="M10">
-        <v>1.039159135042961</v>
+        <v>1.063399475974032</v>
       </c>
       <c r="N10">
-        <v>1.013000150294493</v>
+        <v>1.0210966412468</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9976476810235229</v>
+        <v>1.045095516796122</v>
       </c>
       <c r="D11">
-        <v>1.019635521511551</v>
+        <v>1.050699167452419</v>
       </c>
       <c r="E11">
-        <v>1.007989609199488</v>
+        <v>1.04898659253446</v>
       </c>
       <c r="F11">
-        <v>1.021982441947776</v>
+        <v>1.059397349598437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044257414608923</v>
+        <v>1.044986924868852</v>
       </c>
       <c r="J11">
-        <v>1.027118647706143</v>
+        <v>1.051592141199668</v>
       </c>
       <c r="K11">
-        <v>1.034196403446626</v>
+        <v>1.054212620648965</v>
       </c>
       <c r="L11">
-        <v>1.022762409844415</v>
+        <v>1.052506210989598</v>
       </c>
       <c r="M11">
-        <v>1.036501376412609</v>
+        <v>1.062879828694075</v>
       </c>
       <c r="N11">
-        <v>1.012135423559863</v>
+        <v>1.020933756627815</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.996217919347717</v>
+        <v>1.044833017569734</v>
       </c>
       <c r="D12">
-        <v>1.018565869188929</v>
+        <v>1.050495652986029</v>
       </c>
       <c r="E12">
-        <v>1.006710715496788</v>
+        <v>1.048737277165227</v>
       </c>
       <c r="F12">
-        <v>1.020761784195295</v>
+        <v>1.059159629966478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043761922895902</v>
+        <v>1.044910103466154</v>
       </c>
       <c r="J12">
-        <v>1.026183210622555</v>
+        <v>1.051415553116468</v>
       </c>
       <c r="K12">
-        <v>1.033345815648208</v>
+        <v>1.054054101350297</v>
       </c>
       <c r="L12">
-        <v>1.021710468294615</v>
+        <v>1.052302143635657</v>
       </c>
       <c r="M12">
-        <v>1.035501745287487</v>
+        <v>1.062686798119394</v>
       </c>
       <c r="N12">
-        <v>1.011809934528317</v>
+        <v>1.020873208778346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9965254483212824</v>
+        <v>1.044889322349428</v>
       </c>
       <c r="D13">
-        <v>1.018795890615471</v>
+        <v>1.050539305434934</v>
       </c>
       <c r="E13">
-        <v>1.006985732989903</v>
+        <v>1.048790751078279</v>
       </c>
       <c r="F13">
-        <v>1.021024266757615</v>
+        <v>1.059210616887349</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043868558800928</v>
+        <v>1.044926590346377</v>
       </c>
       <c r="J13">
-        <v>1.026384426954198</v>
+        <v>1.051453434469516</v>
       </c>
       <c r="K13">
-        <v>1.033528782234333</v>
+        <v>1.054088107654684</v>
       </c>
       <c r="L13">
-        <v>1.021936721493712</v>
+        <v>1.052345916788598</v>
       </c>
       <c r="M13">
-        <v>1.035716742916784</v>
+        <v>1.062728204298907</v>
       </c>
       <c r="N13">
-        <v>1.011879950910104</v>
+        <v>1.020886198542268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9975298735754441</v>
+        <v>1.045073817538196</v>
       </c>
       <c r="D14">
-        <v>1.0195473629298</v>
+        <v>1.050682343939548</v>
       </c>
       <c r="E14">
-        <v>1.007884205360714</v>
+        <v>1.048965981758669</v>
       </c>
       <c r="F14">
-        <v>1.021881832585482</v>
+        <v>1.059377697480254</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044216614893369</v>
+        <v>1.044980578587571</v>
       </c>
       <c r="J14">
-        <v>1.027041576466036</v>
+        <v>1.051577545550408</v>
       </c>
       <c r="K14">
-        <v>1.034126323771487</v>
+        <v>1.054199518916961</v>
       </c>
       <c r="L14">
-        <v>1.022675729055793</v>
+        <v>1.052489342724591</v>
       </c>
       <c r="M14">
-        <v>1.036419004019151</v>
+        <v>1.062863872937194</v>
       </c>
       <c r="N14">
-        <v>1.012108607396421</v>
+        <v>1.020928752645699</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9981462923504086</v>
+        <v>1.045187497545162</v>
       </c>
       <c r="D15">
-        <v>1.020008691597766</v>
+        <v>1.050770480807999</v>
       </c>
       <c r="E15">
-        <v>1.008435777711252</v>
+        <v>1.049073962034222</v>
       </c>
       <c r="F15">
-        <v>1.022408326004617</v>
+        <v>1.059480655239673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04443004173124</v>
+        <v>1.045013817841171</v>
       </c>
       <c r="J15">
-        <v>1.027444834550159</v>
+        <v>1.051654006837911</v>
       </c>
       <c r="K15">
-        <v>1.034492998396764</v>
+        <v>1.054268153179517</v>
       </c>
       <c r="L15">
-        <v>1.023129288385228</v>
+        <v>1.052577712135677</v>
       </c>
       <c r="M15">
-        <v>1.036850023514409</v>
+        <v>1.062947461491602</v>
       </c>
       <c r="N15">
-        <v>1.012248914767996</v>
+        <v>1.020954965642804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00169769192198</v>
+        <v>1.045849262667985</v>
       </c>
       <c r="D16">
-        <v>1.022668734586804</v>
+        <v>1.051283568563399</v>
       </c>
       <c r="E16">
-        <v>1.011616209500121</v>
+        <v>1.049702680714485</v>
       </c>
       <c r="F16">
-        <v>1.025444638247865</v>
+        <v>1.060080125607954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045656954157575</v>
+        <v>1.045206907651627</v>
       </c>
       <c r="J16">
-        <v>1.029767544390501</v>
+        <v>1.052098927676727</v>
       </c>
       <c r="K16">
-        <v>1.036604902412382</v>
+        <v>1.054667482957444</v>
       </c>
       <c r="L16">
-        <v>1.025742778739283</v>
+        <v>1.053092059473572</v>
       </c>
       <c r="M16">
-        <v>1.03933381757674</v>
+        <v>1.063433961767216</v>
       </c>
       <c r="N16">
-        <v>1.013056949998552</v>
+        <v>1.021107445006785</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003894198498886</v>
+        <v>1.046264457227631</v>
       </c>
       <c r="D17">
-        <v>1.024315776092964</v>
+        <v>1.051605496482523</v>
       </c>
       <c r="E17">
-        <v>1.013585534720395</v>
+        <v>1.050097258839147</v>
       </c>
       <c r="F17">
-        <v>1.027325131260009</v>
+        <v>1.060456343567817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046413363168223</v>
+        <v>1.045327695609964</v>
       </c>
       <c r="J17">
-        <v>1.031203546569023</v>
+        <v>1.05237791163586</v>
       </c>
       <c r="K17">
-        <v>1.037910483486344</v>
+        <v>1.054917838475</v>
       </c>
       <c r="L17">
-        <v>1.027359480794531</v>
+        <v>1.05341469504107</v>
       </c>
       <c r="M17">
-        <v>1.040870434389754</v>
+        <v>1.063739111512986</v>
       </c>
       <c r="N17">
-        <v>1.013556403191986</v>
+        <v>1.021203010449346</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005164482526326</v>
+        <v>1.046506664526856</v>
       </c>
       <c r="D18">
-        <v>1.025268923742599</v>
+        <v>1.051793300788647</v>
       </c>
       <c r="E18">
-        <v>1.01472522782809</v>
+        <v>1.050327481381649</v>
       </c>
       <c r="F18">
-        <v>1.02841355307507</v>
+        <v>1.060675852013097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0468499198656</v>
+        <v>1.045398029421156</v>
       </c>
       <c r="J18">
-        <v>1.032033791774856</v>
+        <v>1.052540601026555</v>
       </c>
       <c r="K18">
-        <v>1.038665286099911</v>
+        <v>1.055063818401586</v>
       </c>
       <c r="L18">
-        <v>1.028294534961346</v>
+        <v>1.053602882494896</v>
       </c>
       <c r="M18">
-        <v>1.041759215791873</v>
+        <v>1.063917093214622</v>
       </c>
       <c r="N18">
-        <v>1.013845126230775</v>
+        <v>1.021258722964459</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005595798735451</v>
+        <v>1.046589256277948</v>
       </c>
       <c r="D19">
-        <v>1.025592662772452</v>
+        <v>1.0518573421388</v>
       </c>
       <c r="E19">
-        <v>1.01511233537158</v>
+        <v>1.050405993487791</v>
       </c>
       <c r="F19">
-        <v>1.028783268453039</v>
+        <v>1.060750710047293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046997997147666</v>
+        <v>1.045421991114975</v>
       </c>
       <c r="J19">
-        <v>1.03231565619459</v>
+        <v>1.052596067582929</v>
       </c>
       <c r="K19">
-        <v>1.038921531257411</v>
+        <v>1.055113585597306</v>
       </c>
       <c r="L19">
-        <v>1.028612038445943</v>
+        <v>1.05366704947571</v>
       </c>
       <c r="M19">
-        <v>1.04206101437538</v>
+        <v>1.063977779179151</v>
       </c>
       <c r="N19">
-        <v>1.013943138766792</v>
+        <v>1.021277714535515</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00365966916346</v>
+        <v>1.046219907540681</v>
       </c>
       <c r="D20">
-        <v>1.02413984918085</v>
+        <v>1.051570953639284</v>
       </c>
       <c r="E20">
-        <v>1.013375179693995</v>
+        <v>1.050054916911841</v>
       </c>
       <c r="F20">
-        <v>1.027124250419714</v>
+        <v>1.060415972020186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046332690475079</v>
+        <v>1.0453147485915</v>
       </c>
       <c r="J20">
-        <v>1.03105024199554</v>
+        <v>1.052347983146901</v>
       </c>
       <c r="K20">
-        <v>1.037771106208646</v>
+        <v>1.054890982681727</v>
       </c>
       <c r="L20">
-        <v>1.027186850370014</v>
+        <v>1.053380079339044</v>
       </c>
       <c r="M20">
-        <v>1.040706350488255</v>
+        <v>1.063706372552483</v>
       </c>
       <c r="N20">
-        <v>1.013503087003383</v>
+        <v>1.021192760199758</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9972346059037617</v>
+        <v>1.04501948696392</v>
       </c>
       <c r="D21">
-        <v>1.019326423983663</v>
+        <v>1.050640221388097</v>
       </c>
       <c r="E21">
-        <v>1.007620047209665</v>
+        <v>1.048914377592459</v>
       </c>
       <c r="F21">
-        <v>1.021629694224387</v>
+        <v>1.059328493515082</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044114334643168</v>
+        <v>1.044964685538068</v>
       </c>
       <c r="J21">
-        <v>1.026848403847941</v>
+        <v>1.051540999522861</v>
       </c>
       <c r="K21">
-        <v>1.033950674289447</v>
+        <v>1.054166713137499</v>
       </c>
       <c r="L21">
-        <v>1.022458479372659</v>
+        <v>1.052447107369487</v>
       </c>
       <c r="M21">
-        <v>1.036212554128571</v>
+        <v>1.062823922189631</v>
       </c>
       <c r="N21">
-        <v>1.012041394056957</v>
+        <v>1.0209162227705</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.993089212229451</v>
+        <v>1.044265015897545</v>
       </c>
       <c r="D22">
-        <v>1.016227309450296</v>
+        <v>1.050055300046032</v>
       </c>
       <c r="E22">
-        <v>1.003914669080052</v>
+        <v>1.048197924258912</v>
       </c>
       <c r="F22">
-        <v>1.01809354753784</v>
+        <v>1.058645358735326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042675232582596</v>
+        <v>1.044743509131497</v>
       </c>
       <c r="J22">
-        <v>1.024135752214209</v>
+        <v>1.051033282894629</v>
       </c>
       <c r="K22">
-        <v>1.03148401175709</v>
+        <v>1.053710903919306</v>
       </c>
       <c r="L22">
-        <v>1.019408972470024</v>
+        <v>1.051860508839436</v>
       </c>
       <c r="M22">
-        <v>1.0333148918872</v>
+        <v>1.062269030429761</v>
       </c>
       <c r="N22">
-        <v>1.011097422001287</v>
+        <v>1.020742091004517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9952971642456738</v>
+        <v>1.044664948712776</v>
       </c>
       <c r="D23">
-        <v>1.017877343652376</v>
+        <v>1.0503653524208</v>
       </c>
       <c r="E23">
-        <v>1.005887501182031</v>
+        <v>1.048577668102482</v>
       </c>
       <c r="F23">
-        <v>1.019976129490895</v>
+        <v>1.059007443777053</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043442456956852</v>
+        <v>1.044860861047414</v>
       </c>
       <c r="J23">
-        <v>1.025580722230817</v>
+        <v>1.051302464674379</v>
       </c>
       <c r="K23">
-        <v>1.032797966172105</v>
+        <v>1.053952577875165</v>
       </c>
       <c r="L23">
-        <v>1.021033090560861</v>
+        <v>1.052171475927431</v>
       </c>
       <c r="M23">
-        <v>1.034858080812383</v>
+        <v>1.062563194624186</v>
       </c>
       <c r="N23">
-        <v>1.011600281838654</v>
+        <v>1.020834426293681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003765676483823</v>
+        <v>1.046240037529605</v>
       </c>
       <c r="D24">
-        <v>1.024219366242569</v>
+        <v>1.051586561973043</v>
       </c>
       <c r="E24">
-        <v>1.013470257766996</v>
+        <v>1.050074049184295</v>
       </c>
       <c r="F24">
-        <v>1.027215045843063</v>
+        <v>1.060434213978134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046369157317318</v>
+        <v>1.045320599161857</v>
       </c>
       <c r="J24">
-        <v>1.031119536400909</v>
+        <v>1.052361506657783</v>
       </c>
       <c r="K24">
-        <v>1.037834105527553</v>
+        <v>1.054903117807638</v>
       </c>
       <c r="L24">
-        <v>1.027264879114492</v>
+        <v>1.053395720685988</v>
       </c>
       <c r="M24">
-        <v>1.040780516072582</v>
+        <v>1.06372116590104</v>
       </c>
       <c r="N24">
-        <v>1.013527186311449</v>
+        <v>1.02119739193652</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013168410072917</v>
+        <v>1.048069070344481</v>
       </c>
       <c r="D25">
-        <v>1.031285007435685</v>
+        <v>1.053004850920849</v>
       </c>
       <c r="E25">
-        <v>1.021919833542241</v>
+        <v>1.051813331427423</v>
       </c>
       <c r="F25">
-        <v>1.035286711208105</v>
+        <v>1.062092522751373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049584307627119</v>
+        <v>1.045849401076917</v>
       </c>
       <c r="J25">
-        <v>1.037260588793944</v>
+        <v>1.053589004562598</v>
       </c>
       <c r="K25">
-        <v>1.043416327799445</v>
+        <v>1.056004274099353</v>
       </c>
       <c r="L25">
-        <v>1.034187141756291</v>
+        <v>1.054816371383592</v>
       </c>
       <c r="M25">
-        <v>1.047360873535023</v>
+        <v>1.065064651730353</v>
       </c>
       <c r="N25">
-        <v>1.015661916780516</v>
+        <v>1.021617447577732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049528901042879</v>
+        <v>1.020360899099291</v>
       </c>
       <c r="D2">
-        <v>1.054136975441201</v>
+        <v>1.036706009352287</v>
       </c>
       <c r="E2">
-        <v>1.053202837223017</v>
+        <v>1.028405361669781</v>
       </c>
       <c r="F2">
-        <v>1.063417280071903</v>
+        <v>1.041485491089954</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046267377102742</v>
+        <v>1.052014412231142</v>
       </c>
       <c r="J2">
-        <v>1.054566867383135</v>
+        <v>1.041949217912735</v>
       </c>
       <c r="K2">
-        <v>1.056881015881968</v>
+        <v>1.047676602341817</v>
       </c>
       <c r="L2">
-        <v>1.055949455611956</v>
+        <v>1.039482655713741</v>
       </c>
       <c r="M2">
-        <v>1.066135975885871</v>
+        <v>1.052395608676151</v>
       </c>
       <c r="N2">
-        <v>1.021951551960112</v>
+        <v>1.017290054748712</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050589452302866</v>
+        <v>1.025420821091422</v>
       </c>
       <c r="D3">
-        <v>1.054959511645151</v>
+        <v>1.040527755121083</v>
       </c>
       <c r="E3">
-        <v>1.0542130477284</v>
+        <v>1.032979810687189</v>
       </c>
       <c r="F3">
-        <v>1.064380378148236</v>
+        <v>1.045859217963211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046568661151701</v>
+        <v>1.053706240390701</v>
       </c>
       <c r="J3">
-        <v>1.055276191699055</v>
+        <v>1.045241686852245</v>
       </c>
       <c r="K3">
-        <v>1.057516711613107</v>
+        <v>1.050667063029109</v>
       </c>
       <c r="L3">
-        <v>1.056772158639386</v>
+        <v>1.043207406644968</v>
       </c>
       <c r="M3">
-        <v>1.066913708975957</v>
+        <v>1.055937111925264</v>
       </c>
       <c r="N3">
-        <v>1.022193598356602</v>
+        <v>1.018432215646684</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051275972222913</v>
+        <v>1.0286244601078</v>
       </c>
       <c r="D4">
-        <v>1.055491982083952</v>
+        <v>1.042950784007439</v>
       </c>
       <c r="E4">
-        <v>1.054867324505244</v>
+        <v>1.035881291900977</v>
       </c>
       <c r="F4">
-        <v>1.065004122744296</v>
+        <v>1.04863397514554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046762591504613</v>
+        <v>1.054768930897523</v>
       </c>
       <c r="J4">
-        <v>1.055734851351829</v>
+        <v>1.047323247916292</v>
       </c>
       <c r="K4">
-        <v>1.05792763277806</v>
+        <v>1.052557058974358</v>
       </c>
       <c r="L4">
-        <v>1.057304493731963</v>
+        <v>1.045565121366054</v>
       </c>
       <c r="M4">
-        <v>1.067416885983768</v>
+        <v>1.058178833042184</v>
       </c>
       <c r="N4">
-        <v>1.022349966238272</v>
+        <v>1.019153721252247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051564650345293</v>
+        <v>1.029955053509962</v>
       </c>
       <c r="D5">
-        <v>1.055715888098839</v>
+        <v>1.04395790206775</v>
       </c>
       <c r="E5">
-        <v>1.055142526336449</v>
+        <v>1.037087599802769</v>
       </c>
       <c r="F5">
-        <v>1.065266477338492</v>
+        <v>1.049787721708126</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046843875253564</v>
+        <v>1.055208235923947</v>
       </c>
       <c r="J5">
-        <v>1.055927594751891</v>
+        <v>1.048187034245285</v>
       </c>
       <c r="K5">
-        <v>1.058100283887241</v>
+        <v>1.053341190065802</v>
       </c>
       <c r="L5">
-        <v>1.057528284890812</v>
+        <v>1.046544193463947</v>
       </c>
       <c r="M5">
-        <v>1.067628404706994</v>
+        <v>1.059109725411936</v>
       </c>
       <c r="N5">
-        <v>1.022415642653439</v>
+        <v>1.019452975122109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051613124491273</v>
+        <v>1.030177533410492</v>
       </c>
       <c r="D6">
-        <v>1.055753486134812</v>
+        <v>1.044126337749982</v>
       </c>
       <c r="E6">
-        <v>1.055188742357484</v>
+        <v>1.037289368889863</v>
       </c>
       <c r="F6">
-        <v>1.065310535571592</v>
+        <v>1.049980706170366</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046857508803851</v>
+        <v>1.055281566451547</v>
       </c>
       <c r="J6">
-        <v>1.055959952684152</v>
+        <v>1.048331416296362</v>
       </c>
       <c r="K6">
-        <v>1.058129266882612</v>
+        <v>1.053472247947428</v>
       </c>
       <c r="L6">
-        <v>1.05756586025177</v>
+        <v>1.046707886272043</v>
       </c>
       <c r="M6">
-        <v>1.067663918625281</v>
+        <v>1.059265361935074</v>
       </c>
       <c r="N6">
-        <v>1.022426666449595</v>
+        <v>1.019502986433765</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051279829298172</v>
+        <v>1.028642302441645</v>
       </c>
       <c r="D7">
-        <v>1.055494973710104</v>
+        <v>1.042964285903883</v>
       </c>
       <c r="E7">
-        <v>1.054871001200862</v>
+        <v>1.035897462913215</v>
       </c>
       <c r="F7">
-        <v>1.06500762781996</v>
+        <v>1.048649441081221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046763678583341</v>
+        <v>1.054774829904359</v>
       </c>
       <c r="J7">
-        <v>1.055737427102042</v>
+        <v>1.047334833764074</v>
       </c>
       <c r="K7">
-        <v>1.057929940144695</v>
+        <v>1.052567577068544</v>
       </c>
       <c r="L7">
-        <v>1.057307484050768</v>
+        <v>1.045578250791726</v>
       </c>
       <c r="M7">
-        <v>1.067419712374338</v>
+        <v>1.058191316436344</v>
       </c>
       <c r="N7">
-        <v>1.022350844048322</v>
+        <v>1.019157735705456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049887262885853</v>
+        <v>1.022085919743285</v>
       </c>
       <c r="D8">
-        <v>1.054414906423549</v>
+        <v>1.038008178774377</v>
       </c>
       <c r="E8">
-        <v>1.053544117435405</v>
+        <v>1.029963756834395</v>
       </c>
       <c r="F8">
-        <v>1.063742648097504</v>
+        <v>1.042975371399703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046369408626705</v>
+        <v>1.052592942498944</v>
       </c>
       <c r="J8">
-        <v>1.054806653022467</v>
+        <v>1.043072294242747</v>
       </c>
       <c r="K8">
-        <v>1.057095938199458</v>
+        <v>1.048696788188752</v>
       </c>
       <c r="L8">
-        <v>1.056227493521096</v>
+        <v>1.040752588110244</v>
       </c>
       <c r="M8">
-        <v>1.066398828244496</v>
+        <v>1.053603056573097</v>
       </c>
       <c r="N8">
-        <v>1.022033404776202</v>
+        <v>1.01767977009654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047435470645317</v>
+        <v>1.009961710450963</v>
       </c>
       <c r="D9">
-        <v>1.052513516683916</v>
+        <v>1.028872588789544</v>
       </c>
       <c r="E9">
-        <v>1.05121061868048</v>
+        <v>1.019034560940536</v>
       </c>
       <c r="F9">
-        <v>1.061517878291053</v>
+        <v>1.032529903327462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045666848930377</v>
+        <v>1.048492330376747</v>
       </c>
       <c r="J9">
-        <v>1.053164070505143</v>
+        <v>1.0351675335708</v>
       </c>
       <c r="K9">
-        <v>1.05562314981612</v>
+        <v>1.04151397431459</v>
       </c>
       <c r="L9">
-        <v>1.054324362976902</v>
+        <v>1.031826183944161</v>
       </c>
       <c r="M9">
-        <v>1.064599400383645</v>
+        <v>1.04511636642422</v>
       </c>
       <c r="N9">
-        <v>1.021472114063642</v>
+        <v>1.014934582763669</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045802345923186</v>
+        <v>1.001447966307132</v>
       </c>
       <c r="D10">
-        <v>1.051247191574641</v>
+        <v>1.022481566889996</v>
       </c>
       <c r="E10">
-        <v>1.049658099311652</v>
+        <v>1.011392422214938</v>
       </c>
       <c r="F10">
-        <v>1.060037618419168</v>
+        <v>1.02523096495769</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045193241249137</v>
+        <v>1.045570836224301</v>
       </c>
       <c r="J10">
-        <v>1.052067394771845</v>
+        <v>1.029604252951109</v>
       </c>
       <c r="K10">
-        <v>1.054639183858807</v>
+        <v>1.036456436680122</v>
       </c>
       <c r="L10">
-        <v>1.053055598499608</v>
+        <v>1.025558985038741</v>
       </c>
       <c r="M10">
-        <v>1.063399475974032</v>
+        <v>1.039159135042959</v>
       </c>
       <c r="N10">
-        <v>1.0210966412468</v>
+        <v>1.013000150294493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045095516796122</v>
+        <v>0.9976476810235225</v>
       </c>
       <c r="D11">
-        <v>1.050699167452419</v>
+        <v>1.019635521511551</v>
       </c>
       <c r="E11">
-        <v>1.04898659253446</v>
+        <v>1.007989609199487</v>
       </c>
       <c r="F11">
-        <v>1.059397349598437</v>
+        <v>1.021982441947776</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044986924868852</v>
+        <v>1.044257414608923</v>
       </c>
       <c r="J11">
-        <v>1.051592141199668</v>
+        <v>1.027118647706143</v>
       </c>
       <c r="K11">
-        <v>1.054212620648965</v>
+        <v>1.034196403446626</v>
       </c>
       <c r="L11">
-        <v>1.052506210989598</v>
+        <v>1.022762409844414</v>
       </c>
       <c r="M11">
-        <v>1.062879828694075</v>
+        <v>1.036501376412608</v>
       </c>
       <c r="N11">
-        <v>1.020933756627815</v>
+        <v>1.012135423559862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044833017569734</v>
+        <v>0.996217919347716</v>
       </c>
       <c r="D12">
-        <v>1.050495652986029</v>
+        <v>1.018565869188929</v>
       </c>
       <c r="E12">
-        <v>1.048737277165227</v>
+        <v>1.006710715496787</v>
       </c>
       <c r="F12">
-        <v>1.059159629966478</v>
+        <v>1.020761784195295</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044910103466154</v>
+        <v>1.043761922895902</v>
       </c>
       <c r="J12">
-        <v>1.051415553116468</v>
+        <v>1.026183210622554</v>
       </c>
       <c r="K12">
-        <v>1.054054101350297</v>
+        <v>1.033345815648208</v>
       </c>
       <c r="L12">
-        <v>1.052302143635657</v>
+        <v>1.021710468294614</v>
       </c>
       <c r="M12">
-        <v>1.062686798119394</v>
+        <v>1.035501745287486</v>
       </c>
       <c r="N12">
-        <v>1.020873208778346</v>
+        <v>1.011809934528316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044889322349428</v>
+        <v>0.9965254483212835</v>
       </c>
       <c r="D13">
-        <v>1.050539305434934</v>
+        <v>1.018795890615472</v>
       </c>
       <c r="E13">
-        <v>1.048790751078279</v>
+        <v>1.006985732989905</v>
       </c>
       <c r="F13">
-        <v>1.059210616887349</v>
+        <v>1.021024266757616</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044926590346377</v>
+        <v>1.043868558800929</v>
       </c>
       <c r="J13">
-        <v>1.051453434469516</v>
+        <v>1.026384426954199</v>
       </c>
       <c r="K13">
-        <v>1.054088107654684</v>
+        <v>1.033528782234334</v>
       </c>
       <c r="L13">
-        <v>1.052345916788598</v>
+        <v>1.021936721493713</v>
       </c>
       <c r="M13">
-        <v>1.062728204298907</v>
+        <v>1.035716742916785</v>
       </c>
       <c r="N13">
-        <v>1.020886198542268</v>
+        <v>1.011879950910104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045073817538196</v>
+        <v>0.9975298735754451</v>
       </c>
       <c r="D14">
-        <v>1.050682343939548</v>
+        <v>1.019547362929801</v>
       </c>
       <c r="E14">
-        <v>1.048965981758669</v>
+        <v>1.007884205360715</v>
       </c>
       <c r="F14">
-        <v>1.059377697480254</v>
+        <v>1.021881832585483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044980578587571</v>
+        <v>1.04421661489337</v>
       </c>
       <c r="J14">
-        <v>1.051577545550408</v>
+        <v>1.027041576466037</v>
       </c>
       <c r="K14">
-        <v>1.054199518916961</v>
+        <v>1.034126323771488</v>
       </c>
       <c r="L14">
-        <v>1.052489342724591</v>
+        <v>1.022675729055794</v>
       </c>
       <c r="M14">
-        <v>1.062863872937194</v>
+        <v>1.036419004019153</v>
       </c>
       <c r="N14">
-        <v>1.020928752645699</v>
+        <v>1.012108607396421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045187497545162</v>
+        <v>0.9981462923504091</v>
       </c>
       <c r="D15">
-        <v>1.050770480807999</v>
+        <v>1.020008691597766</v>
       </c>
       <c r="E15">
-        <v>1.049073962034222</v>
+        <v>1.008435777711253</v>
       </c>
       <c r="F15">
-        <v>1.059480655239673</v>
+        <v>1.022408326004618</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045013817841171</v>
+        <v>1.04443004173124</v>
       </c>
       <c r="J15">
-        <v>1.051654006837911</v>
+        <v>1.02744483455016</v>
       </c>
       <c r="K15">
-        <v>1.054268153179517</v>
+        <v>1.034492998396764</v>
       </c>
       <c r="L15">
-        <v>1.052577712135677</v>
+        <v>1.023129288385228</v>
       </c>
       <c r="M15">
-        <v>1.062947461491602</v>
+        <v>1.036850023514409</v>
       </c>
       <c r="N15">
-        <v>1.020954965642804</v>
+        <v>1.012248914767996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045849262667985</v>
+        <v>1.00169769192198</v>
       </c>
       <c r="D16">
-        <v>1.051283568563399</v>
+        <v>1.022668734586804</v>
       </c>
       <c r="E16">
-        <v>1.049702680714485</v>
+        <v>1.01161620950012</v>
       </c>
       <c r="F16">
-        <v>1.060080125607954</v>
+        <v>1.025444638247865</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045206907651627</v>
+        <v>1.045656954157575</v>
       </c>
       <c r="J16">
-        <v>1.052098927676727</v>
+        <v>1.0297675443905</v>
       </c>
       <c r="K16">
-        <v>1.054667482957444</v>
+        <v>1.036604902412382</v>
       </c>
       <c r="L16">
-        <v>1.053092059473572</v>
+        <v>1.025742778739281</v>
       </c>
       <c r="M16">
-        <v>1.063433961767216</v>
+        <v>1.039333817576739</v>
       </c>
       <c r="N16">
-        <v>1.021107445006785</v>
+        <v>1.013056949998552</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046264457227631</v>
+        <v>1.003894198498885</v>
       </c>
       <c r="D17">
-        <v>1.051605496482523</v>
+        <v>1.024315776092963</v>
       </c>
       <c r="E17">
-        <v>1.050097258839147</v>
+        <v>1.013585534720395</v>
       </c>
       <c r="F17">
-        <v>1.060456343567817</v>
+        <v>1.027325131260008</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045327695609964</v>
+        <v>1.046413363168223</v>
       </c>
       <c r="J17">
-        <v>1.05237791163586</v>
+        <v>1.031203546569023</v>
       </c>
       <c r="K17">
-        <v>1.054917838475</v>
+        <v>1.037910483486343</v>
       </c>
       <c r="L17">
-        <v>1.05341469504107</v>
+        <v>1.027359480794531</v>
       </c>
       <c r="M17">
-        <v>1.063739111512986</v>
+        <v>1.040870434389753</v>
       </c>
       <c r="N17">
-        <v>1.021203010449346</v>
+        <v>1.013556403191986</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046506664526856</v>
+        <v>1.005164482526326</v>
       </c>
       <c r="D18">
-        <v>1.051793300788647</v>
+        <v>1.025268923742599</v>
       </c>
       <c r="E18">
-        <v>1.050327481381649</v>
+        <v>1.01472522782809</v>
       </c>
       <c r="F18">
-        <v>1.060675852013097</v>
+        <v>1.028413553075069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045398029421156</v>
+        <v>1.0468499198656</v>
       </c>
       <c r="J18">
-        <v>1.052540601026555</v>
+        <v>1.032033791774856</v>
       </c>
       <c r="K18">
-        <v>1.055063818401586</v>
+        <v>1.038665286099911</v>
       </c>
       <c r="L18">
-        <v>1.053602882494896</v>
+        <v>1.028294534961346</v>
       </c>
       <c r="M18">
-        <v>1.063917093214622</v>
+        <v>1.041759215791872</v>
       </c>
       <c r="N18">
-        <v>1.021258722964459</v>
+        <v>1.013845126230775</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046589256277948</v>
+        <v>1.00559579873545</v>
       </c>
       <c r="D19">
-        <v>1.0518573421388</v>
+        <v>1.025592662772451</v>
       </c>
       <c r="E19">
-        <v>1.050405993487791</v>
+        <v>1.015112335371578</v>
       </c>
       <c r="F19">
-        <v>1.060750710047293</v>
+        <v>1.028783268453037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045421991114975</v>
+        <v>1.046997997147666</v>
       </c>
       <c r="J19">
-        <v>1.052596067582929</v>
+        <v>1.032315656194588</v>
       </c>
       <c r="K19">
-        <v>1.055113585597306</v>
+        <v>1.03892153125741</v>
       </c>
       <c r="L19">
-        <v>1.05366704947571</v>
+        <v>1.028612038445941</v>
       </c>
       <c r="M19">
-        <v>1.063977779179151</v>
+        <v>1.042061014375379</v>
       </c>
       <c r="N19">
-        <v>1.021277714535515</v>
+        <v>1.013943138766792</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046219907540681</v>
+        <v>1.003659669163459</v>
       </c>
       <c r="D20">
-        <v>1.051570953639284</v>
+        <v>1.024139849180849</v>
       </c>
       <c r="E20">
-        <v>1.050054916911841</v>
+        <v>1.013375179693994</v>
       </c>
       <c r="F20">
-        <v>1.060415972020186</v>
+        <v>1.027124250419714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0453147485915</v>
+        <v>1.046332690475079</v>
       </c>
       <c r="J20">
-        <v>1.052347983146901</v>
+        <v>1.031050241995539</v>
       </c>
       <c r="K20">
-        <v>1.054890982681727</v>
+        <v>1.037771106208646</v>
       </c>
       <c r="L20">
-        <v>1.053380079339044</v>
+        <v>1.027186850370013</v>
       </c>
       <c r="M20">
-        <v>1.063706372552483</v>
+        <v>1.040706350488255</v>
       </c>
       <c r="N20">
-        <v>1.021192760199758</v>
+        <v>1.013503087003383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04501948696392</v>
+        <v>0.9972346059037609</v>
       </c>
       <c r="D21">
-        <v>1.050640221388097</v>
+        <v>1.019326423983662</v>
       </c>
       <c r="E21">
-        <v>1.048914377592459</v>
+        <v>1.007620047209664</v>
       </c>
       <c r="F21">
-        <v>1.059328493515082</v>
+        <v>1.021629694224387</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044964685538068</v>
+        <v>1.044114334643167</v>
       </c>
       <c r="J21">
-        <v>1.051540999522861</v>
+        <v>1.02684840384794</v>
       </c>
       <c r="K21">
-        <v>1.054166713137499</v>
+        <v>1.033950674289446</v>
       </c>
       <c r="L21">
-        <v>1.052447107369487</v>
+        <v>1.022458479372659</v>
       </c>
       <c r="M21">
-        <v>1.062823922189631</v>
+        <v>1.03621255412857</v>
       </c>
       <c r="N21">
-        <v>1.0209162227705</v>
+        <v>1.012041394056957</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044265015897545</v>
+        <v>0.9930892122294526</v>
       </c>
       <c r="D22">
-        <v>1.050055300046032</v>
+        <v>1.016227309450297</v>
       </c>
       <c r="E22">
-        <v>1.048197924258912</v>
+        <v>1.003914669080054</v>
       </c>
       <c r="F22">
-        <v>1.058645358735326</v>
+        <v>1.018093547537841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044743509131497</v>
+        <v>1.042675232582597</v>
       </c>
       <c r="J22">
-        <v>1.051033282894629</v>
+        <v>1.02413575221421</v>
       </c>
       <c r="K22">
-        <v>1.053710903919306</v>
+        <v>1.031484011757091</v>
       </c>
       <c r="L22">
-        <v>1.051860508839436</v>
+        <v>1.019408972470025</v>
       </c>
       <c r="M22">
-        <v>1.062269030429761</v>
+        <v>1.033314891887202</v>
       </c>
       <c r="N22">
-        <v>1.020742091004517</v>
+        <v>1.011097422001288</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044664948712776</v>
+        <v>0.9952971642456728</v>
       </c>
       <c r="D23">
-        <v>1.0503653524208</v>
+        <v>1.017877343652375</v>
       </c>
       <c r="E23">
-        <v>1.048577668102482</v>
+        <v>1.00588750118203</v>
       </c>
       <c r="F23">
-        <v>1.059007443777053</v>
+        <v>1.019976129490894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044860861047414</v>
+        <v>1.043442456956851</v>
       </c>
       <c r="J23">
-        <v>1.051302464674379</v>
+        <v>1.025580722230816</v>
       </c>
       <c r="K23">
-        <v>1.053952577875165</v>
+        <v>1.032797966172104</v>
       </c>
       <c r="L23">
-        <v>1.052171475927431</v>
+        <v>1.02103309056086</v>
       </c>
       <c r="M23">
-        <v>1.062563194624186</v>
+        <v>1.034858080812382</v>
       </c>
       <c r="N23">
-        <v>1.020834426293681</v>
+        <v>1.011600281838654</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046240037529605</v>
+        <v>1.003765676483823</v>
       </c>
       <c r="D24">
-        <v>1.051586561973043</v>
+        <v>1.024219366242569</v>
       </c>
       <c r="E24">
-        <v>1.050074049184295</v>
+        <v>1.013470257766995</v>
       </c>
       <c r="F24">
-        <v>1.060434213978134</v>
+        <v>1.027215045843063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045320599161857</v>
+        <v>1.046369157317318</v>
       </c>
       <c r="J24">
-        <v>1.052361506657783</v>
+        <v>1.031119536400909</v>
       </c>
       <c r="K24">
-        <v>1.054903117807638</v>
+        <v>1.037834105527553</v>
       </c>
       <c r="L24">
-        <v>1.053395720685988</v>
+        <v>1.027264879114492</v>
       </c>
       <c r="M24">
-        <v>1.06372116590104</v>
+        <v>1.040780516072582</v>
       </c>
       <c r="N24">
-        <v>1.02119739193652</v>
+        <v>1.013527186311448</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048069070344481</v>
+        <v>1.013168410072919</v>
       </c>
       <c r="D25">
-        <v>1.053004850920849</v>
+        <v>1.031285007435687</v>
       </c>
       <c r="E25">
-        <v>1.051813331427423</v>
+        <v>1.021919833542243</v>
       </c>
       <c r="F25">
-        <v>1.062092522751373</v>
+        <v>1.035286711208107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045849401076917</v>
+        <v>1.04958430762712</v>
       </c>
       <c r="J25">
-        <v>1.053589004562598</v>
+        <v>1.037260588793946</v>
       </c>
       <c r="K25">
-        <v>1.056004274099353</v>
+        <v>1.043416327799446</v>
       </c>
       <c r="L25">
-        <v>1.054816371383592</v>
+        <v>1.034187141756293</v>
       </c>
       <c r="M25">
-        <v>1.065064651730353</v>
+        <v>1.047360873535025</v>
       </c>
       <c r="N25">
-        <v>1.021617447577732</v>
+        <v>1.015661916780517</v>
       </c>
     </row>
   </sheetData>
